--- a/Time.xlsx
+++ b/Time.xlsx
@@ -74,17 +74,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -107,6 +111,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -260,19 +279,448 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Degree by Dimension</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0778251210372012"/>
+                  <c:y val="0.0635801515376616"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.126928078231537"/>
+                  <c:y val="0.0238350913682959"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.101564246882302"/>
+                  <c:y val="-0.0689448818897638"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00957405461428838"/>
+                  <c:y val="-0.0736683999405735"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140148696"/>
+        <c:axId val="2141854984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140148696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141854984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2141854984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140148696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -287,6 +735,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8657,7 +9135,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8738,8 +9216,26 @@
         <f t="shared" ref="B3:B6" si="1">A3*A3</f>
         <v>22500</v>
       </c>
+      <c r="D3">
+        <v>6.21</v>
+      </c>
+      <c r="E3">
+        <v>7.14</v>
+      </c>
       <c r="F3">
         <v>7.87</v>
+      </c>
+      <c r="G3">
+        <v>8.67</v>
+      </c>
+      <c r="H3">
+        <v>11.12</v>
+      </c>
+      <c r="I3">
+        <v>19.2</v>
+      </c>
+      <c r="J3">
+        <v>34.67</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8750,8 +9246,26 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
+      <c r="D4">
+        <v>17.21</v>
+      </c>
+      <c r="E4">
+        <v>18.559999999999999</v>
+      </c>
       <c r="F4">
         <v>20.135000000000002</v>
+      </c>
+      <c r="G4">
+        <v>22.31</v>
+      </c>
+      <c r="H4">
+        <v>32.47</v>
+      </c>
+      <c r="I4">
+        <v>44.81</v>
+      </c>
+      <c r="J4">
+        <v>74.260000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8762,8 +9276,23 @@
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
+      <c r="D5">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="E5">
+        <v>41.56</v>
+      </c>
       <c r="F5">
         <v>43.43</v>
+      </c>
+      <c r="G5">
+        <v>47.74</v>
+      </c>
+      <c r="H5">
+        <v>76.91</v>
+      </c>
+      <c r="I5">
+        <v>91.26</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8774,12 +9303,25 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>82.33</v>
+      </c>
       <c r="F6">
         <v>86</v>
       </c>
+      <c r="G6">
+        <v>92.17</v>
+      </c>
+      <c r="H6">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
